--- a/html/Lægesystemer - modtage_excel.XLSX
+++ b/html/Lægesystemer - modtage_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A443C0-AABE-42E1-ABA7-41A2A0016800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30153A5-914F-467B-B1AC-4A94FFC662AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Lægesystemer___modtage">'Opdateret d. 12-05-2025'!$A$1:$K$39</definedName>
+    <definedName name="Lægesystemer___modtage">'Opdateret d. 16-05-2025'!$A$1:$K$39</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -85,7 +85,7 @@
     <t>CareCommunication</t>
   </si>
   <si>
-    <t>CareCommunication (4.0.0)</t>
+    <t>CareCommunication (4.0)</t>
   </si>
   <si>
     <t>Negativ VANS kvittering</t>

--- a/html/Lægesystemer - modtage_excel.XLSX
+++ b/html/Lægesystemer - modtage_excel.XLSX
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30153A5-914F-467B-B1AC-4A94FFC662AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F699669F-7C4F-4BCC-B3CD-379A74C7CE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Lægesystemer___modtage">'Opdateret d. 16-05-2025'!$A$1:$K$39</definedName>
+    <definedName name="Lægesystemer___modtage">'Opdateret d. 02-12-2025'!$A$1:$K$40</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="91">
   <si>
     <t>Standard</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>REF06 (H0631R)</t>
+  </si>
+  <si>
+    <t>Psykologhenvisning</t>
+  </si>
+  <si>
+    <t>REF10 (H1031R)</t>
   </si>
   <si>
     <t>Laboratoriesvar</t>
@@ -631,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1337,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
@@ -1372,7 +1378,7 @@
         <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
@@ -1480,6 +1486,9 @@
       <c r="H28" t="s">
         <v>14</v>
       </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
       <c r="J28" t="s">
         <v>14</v>
       </c>
@@ -1544,6 +1553,9 @@
       <c r="H30" t="s">
         <v>14</v>
       </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
       <c r="J30" t="s">
         <v>14</v>
       </c>
@@ -1561,29 +1573,8 @@
       <c r="C31" t="s">
         <v>13</v>
       </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" t="s">
-        <v>14</v>
-      </c>
       <c r="I31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1611,6 +1602,9 @@
       <c r="H32" t="s">
         <v>14</v>
       </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
       <c r="J32" t="s">
         <v>14</v>
       </c>
@@ -1643,9 +1637,6 @@
       <c r="H33" t="s">
         <v>14</v>
       </c>
-      <c r="I33" t="s">
-        <v>14</v>
-      </c>
       <c r="J33" t="s">
         <v>14</v>
       </c>
@@ -1698,7 +1689,28 @@
       <c r="C35" t="s">
         <v>13</v>
       </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
       <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1712,28 +1724,7 @@
       <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" t="s">
-        <v>14</v>
-      </c>
       <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1785,10 +1776,19 @@
       <c r="D38" t="s">
         <v>14</v>
       </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
       <c r="F38" t="s">
         <v>14</v>
       </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
       <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
         <v>14</v>
       </c>
       <c r="J38" t="s">
@@ -1811,25 +1811,51 @@
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
       <c r="F39" t="s">
         <v>14</v>
       </c>
-      <c r="G39" t="s">
-        <v>14</v>
-      </c>
       <c r="H39" t="s">
         <v>14</v>
       </c>
-      <c r="I39" t="s">
-        <v>14</v>
-      </c>
       <c r="J39" t="s">
         <v>14</v>
       </c>
       <c r="K39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
         <v>14</v>
       </c>
     </row>

--- a/html/Lægesystemer - modtage_excel.XLSX
+++ b/html/Lægesystemer - modtage_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F699669F-7C4F-4BCC-B3CD-379A74C7CE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BD3518-F461-4937-ABD3-65145A62AB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/Lægesystemer - modtage_excel.XLSX
+++ b/html/Lægesystemer - modtage_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BD3518-F461-4937-ABD3-65145A62AB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA4FD8F-A9D6-4E6F-9131-71E2E8D49C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Lægesystemer___modtage">'Opdateret d. 02-12-2025'!$A$1:$K$40</definedName>
+    <definedName name="Lægesystemer___modtage">'Opdateret d. 05-12-2025'!$A$1:$K$40</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -643,9 +643,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -697,7 +697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -732,7 +732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -749,7 +749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -784,7 +784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -819,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -854,7 +854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -868,7 +868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -903,7 +903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -938,7 +938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -973,7 +973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>89</v>
       </c>

--- a/html/Lægesystemer - modtage_excel.XLSX
+++ b/html/Lægesystemer - modtage_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA4FD8F-A9D6-4E6F-9131-71E2E8D49C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3147E751-9A33-432F-A6D0-39C490FB853F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Lægesystemer___modtage">'Opdateret d. 05-12-2025'!$A$1:$K$40</definedName>
+    <definedName name="Lægesystemer___modtage">'Opdateret d. 19-12-2025'!$A$1:$K$40</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -643,9 +643,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -697,7 +697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -732,7 +732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -749,7 +749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -784,7 +784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -819,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -854,7 +854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -868,7 +868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -903,7 +903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -938,7 +938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -973,7 +973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>89</v>
       </c>
